--- a/L6SpeakWell.xlsx
+++ b/L6SpeakWell.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\automation\CommonBOS\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -215,6 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +237,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +268,9 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -280,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -299,6 +303,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,17 +654,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" customWidth="1"/>
-    <col min="3" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="25.73046875" customWidth="1"/>
-    <col min="9" max="9" width="23.46484375" customWidth="1"/>
-    <col min="11" max="11" width="24.86328125" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="21.1328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.46484375"/>
+    <col min="2" max="2" customWidth="true" width="13.1328125"/>
+    <col min="3" max="4" customWidth="true" width="12.86328125"/>
+    <col min="5" max="5" customWidth="true" width="18.3984375"/>
+    <col min="6" max="6" customWidth="true" width="14.0"/>
+    <col min="7" max="7" customWidth="true" width="16.0"/>
+    <col min="8" max="8" customWidth="true" width="25.73046875"/>
+    <col min="9" max="9" customWidth="true" width="23.46484375"/>
+    <col min="11" max="11" customWidth="true" width="24.86328125"/>
+    <col min="12" max="12" customWidth="true" width="22.0"/>
+    <col min="13" max="13" customWidth="true" width="21.1328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -687,7 +718,7 @@
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="4">
@@ -736,7 +767,7 @@
       <c r="I3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="16" t="s">
         <v>55</v>
       </c>
       <c r="K3" s="3"/>
@@ -769,7 +800,7 @@
       <c r="I4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="13" t="s">
         <v>56</v>
       </c>
       <c r="K4" s="3"/>
@@ -786,7 +817,7 @@
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="4">
